--- a/dados_convertidos.xlsx
+++ b/dados_convertidos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,9 +516,21 @@
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -553,9 +565,21 @@
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
@@ -590,9 +614,21 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -627,9 +663,21 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -664,9 +712,21 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -701,9 +761,21 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -738,9 +810,21 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -775,9 +859,21 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -812,9 +908,21 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -849,9 +957,21 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -886,9 +1006,21 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -923,9 +1055,21 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -960,9 +1104,21 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -997,9 +1153,21 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1034,9 +1202,21 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1071,9 +1251,21 @@
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1108,9 +1300,21 @@
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
@@ -1145,9 +1349,21 @@
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1182,9 +1398,21 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1219,9 +1447,21 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1256,9 +1496,21 @@
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1293,9 +1545,21 @@
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1330,9 +1594,21 @@
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
@@ -1367,9 +1643,21 @@
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
@@ -1404,9 +1692,21 @@
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
@@ -1441,9 +1741,21 @@
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
@@ -1478,9 +1790,21 @@
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -1515,9 +1839,21 @@
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -1552,9 +1888,21 @@
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -1589,9 +1937,21 @@
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
@@ -1626,9 +1986,21 @@
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
@@ -1663,9 +2035,21 @@
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -1700,9 +2084,21 @@
       <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1737,9 +2133,21 @@
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
@@ -1774,9 +2182,21 @@
       <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -1811,9 +2231,21 @@
       <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -1848,9 +2280,21 @@
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
@@ -1885,9 +2329,21 @@
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
@@ -1922,9 +2378,21 @@
       <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
@@ -1959,9 +2427,21 @@
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
@@ -1996,9 +2476,21 @@
       <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
@@ -2033,9 +2525,21 @@
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
@@ -2070,9 +2574,21 @@
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>71A</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -2107,9 +2623,21 @@
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>71B</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
@@ -2144,9 +2672,21 @@
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>72A</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
@@ -2181,9 +2721,21 @@
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>72B</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
@@ -2218,9 +2770,21 @@
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>73A</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -2255,9 +2819,21 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>73B</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
@@ -2292,9 +2868,21 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>74A</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -2329,9 +2917,21 @@
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>74B</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
@@ -2366,9 +2966,21 @@
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>75A</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -2403,9 +3015,21 @@
       <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>75B</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -2440,9 +3064,21 @@
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
@@ -2477,9 +3113,21 @@
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>77A</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
@@ -2514,9 +3162,21 @@
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>77B</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
@@ -2551,9 +3211,21 @@
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>78A</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
@@ -2588,9 +3260,21 @@
       <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>78B</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,2115 +3308,6 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_convertidos.xlsx
+++ b/dados_convertidos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>71A</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>71B</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>72A</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>72B</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>73A</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>73B</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>74A</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>74B</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>75A</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>75B</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>77A</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>77B</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>78A</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3259,55 +3259,6 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Unidade</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>78B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0,000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Único</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Água Fria</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
